--- a/planilhas/Vendas Dezembro.xlsx
+++ b/planilhas/Vendas Dezembro.xlsx
@@ -14,24 +14,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+  <si>
+    <t>CÓDIGO</t>
+  </si>
   <si>
     <t>PRODUTO</t>
   </si>
   <si>
+    <t>QTD. COMP.</t>
+  </si>
+  <si>
+    <t>QTD. VENDA</t>
+  </si>
+  <si>
     <t>RESULTADO</t>
   </si>
   <si>
-    <t>QTD. COMP.</t>
-  </si>
-  <si>
-    <t>Coca-Cola 2L</t>
-  </si>
-  <si>
-    <t>Leite</t>
-  </si>
-  <si>
-    <t>Pão</t>
+    <t>L/P</t>
+  </si>
+  <si>
+    <t>#001</t>
+  </si>
+  <si>
+    <t>#002</t>
+  </si>
+  <si>
+    <t>#003</t>
+  </si>
+  <si>
+    <t>#004</t>
+  </si>
+  <si>
+    <t>#005</t>
+  </si>
+  <si>
+    <t>#006</t>
+  </si>
+  <si>
+    <t>#007</t>
+  </si>
+  <si>
+    <t>#008</t>
+  </si>
+  <si>
+    <t>#009</t>
+  </si>
+  <si>
+    <t>#010</t>
+  </si>
+  <si>
+    <t>#011</t>
+  </si>
+  <si>
+    <t>#012</t>
+  </si>
+  <si>
+    <t>#013</t>
+  </si>
+  <si>
+    <t>#014</t>
+  </si>
+  <si>
+    <t>#015</t>
+  </si>
+  <si>
+    <t>#016</t>
+  </si>
+  <si>
+    <t>#017</t>
+  </si>
+  <si>
+    <t>#018</t>
+  </si>
+  <si>
+    <t>#019</t>
+  </si>
+  <si>
+    <t>#020</t>
+  </si>
+  <si>
+    <t>Coca-Cola (2L)</t>
+  </si>
+  <si>
+    <t>Leite (2L)</t>
+  </si>
+  <si>
+    <t>Pão de Fatia</t>
   </si>
   <si>
     <t>Detergente</t>
@@ -49,40 +118,118 @@
     <t>Macarrão</t>
   </si>
   <si>
-    <t>Carne</t>
-  </si>
-  <si>
-    <t>Frango</t>
+    <t>Carne (Kg)</t>
+  </si>
+  <si>
+    <t>Frango (Kg)</t>
   </si>
   <si>
     <t>Farinha</t>
   </si>
   <si>
-    <t>Queijo</t>
-  </si>
-  <si>
-    <t>Presunto</t>
-  </si>
-  <si>
-    <t>Arroz</t>
-  </si>
-  <si>
-    <t>Feijão</t>
-  </si>
-  <si>
-    <t>Chocolate</t>
-  </si>
-  <si>
-    <t>Ruffles</t>
+    <t>Queijo (500g)</t>
+  </si>
+  <si>
+    <t>Presunto (500g)</t>
+  </si>
+  <si>
+    <t>Arroz (Kg)</t>
+  </si>
+  <si>
+    <t>Feijão (Kg)</t>
+  </si>
+  <si>
+    <t>Chocolate (90g)</t>
+  </si>
+  <si>
+    <t>Ruffles (92g)</t>
   </si>
   <si>
     <t>Dúzia de Ovos</t>
   </si>
   <si>
-    <t>Sabão Líquido 2L</t>
-  </si>
-  <si>
-    <t>Garrafa De Água 250ml</t>
+    <t>Sabão Líquido (2L)</t>
+  </si>
+  <si>
+    <t>Garrafa de Água (250ml)</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>130</t>
   </si>
   <si>
     <t>prejuízo</t>
@@ -91,28 +238,61 @@
     <t>lucro</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>220</t>
+    <t>11.63%</t>
+  </si>
+  <si>
+    <t>20.83%</t>
+  </si>
+  <si>
+    <t>17.06%</t>
+  </si>
+  <si>
+    <t>24.56%</t>
+  </si>
+  <si>
+    <t>18.70%</t>
+  </si>
+  <si>
+    <t>26.22%</t>
+  </si>
+  <si>
+    <t>20.41%</t>
+  </si>
+  <si>
+    <t>21.09%</t>
+  </si>
+  <si>
+    <t>24.30%</t>
+  </si>
+  <si>
+    <t>16.16%</t>
+  </si>
+  <si>
+    <t>11.89%</t>
+  </si>
+  <si>
+    <t>19.08%</t>
+  </si>
+  <si>
+    <t>15.90%</t>
+  </si>
+  <si>
+    <t>10.80%</t>
+  </si>
+  <si>
+    <t>7.90%</t>
+  </si>
+  <si>
+    <t>9.48%</t>
+  </si>
+  <si>
+    <t>20.02%</t>
+  </si>
+  <si>
+    <t>17.76%</t>
+  </si>
+  <si>
+    <t>17.18%</t>
   </si>
 </sst>
 </file>
@@ -470,13 +650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,225 +666,414 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
